--- a/main/data/healthdata.xlsx
+++ b/main/data/healthdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonProject\Msc Project\main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D1911-02F6-4626-AA5F-6FB6B30D8A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CAF8D5-C821-4F15-8C51-EF363B1624C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4428" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="patient" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>patient_id</t>
   </si>
@@ -108,6 +108,27 @@
   </si>
   <si>
     <t>registered_patient</t>
+  </si>
+  <si>
+    <t>doctor_6</t>
+  </si>
+  <si>
+    <t>gp3</t>
+  </si>
+  <si>
+    <t>doctor_7</t>
+  </si>
+  <si>
+    <t>doctor_8</t>
+  </si>
+  <si>
+    <t>doctor_9</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +604,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -598,6 +619,48 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -607,16 +670,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8B0A23-B0EC-43C7-BB09-0C120F4ED23F}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -674,6 +737,76 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44573.394456018519</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44577.609733796293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44563.560046296298</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44564.553796296299</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44596.498182870368</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -685,13 +818,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5635DE2F-BC8B-4FB1-A0A7-0F5F3B03D297}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -701,7 +837,7 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -756,6 +892,50 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
